--- a/독학 학습 진도표[초보자용_전면개정2판].xlsx
+++ b/독학 학습 진도표[초보자용_전면개정2판].xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,10 @@
   </si>
   <si>
     <t>폰갭 CLI로 안드로이드, iOS의 하이브리드앱을 제작하는 방법을 학습합니다.</t>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -522,7 +526,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,6 +567,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -572,15 +603,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -593,22 +615,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1127,7 +1134,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1139,13 +1146,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1165,202 +1172,224 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="24">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="22">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="27">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="6">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="24">
+      <c r="A11" s="21"/>
+      <c r="B11" s="14">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="18">
         <v>2</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="17">
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="28">
+      <c r="A16" s="19"/>
+      <c r="B16" s="17">
         <v>7</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="28">
+      <c r="A18" s="19"/>
+      <c r="B18" s="17">
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="28">
+      <c r="A20" s="19"/>
+      <c r="B20" s="17">
         <v>9</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -1370,83 +1399,83 @@
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17">
+      <c r="A22" s="19"/>
+      <c r="B22" s="18">
         <v>10</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="23" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="24">
+      <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="14">
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="24">
+      <c r="A26" s="21"/>
+      <c r="B26" s="14">
         <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="24">
+      <c r="A29" s="21"/>
+      <c r="B29" s="14">
         <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1458,379 +1487,350 @@
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="23" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="25"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="6">
         <v>14</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="24">
+      <c r="A32" s="21"/>
+      <c r="B32" s="14">
         <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1">
-      <c r="A35" s="17">
+      <c r="A35" s="18">
         <v>4</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="18">
         <v>16</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="16"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="17">
+      <c r="A38" s="19"/>
+      <c r="B38" s="18">
         <v>17</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="23" t="s">
         <v>69</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="16"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1">
-      <c r="A40" s="18"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="8">
         <v>18</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="23" t="s">
         <v>70</v>
       </c>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1">
-      <c r="A41" s="18"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="8">
         <v>19</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1">
-      <c r="A42" s="19"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="8">
         <v>20</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="16"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1">
-      <c r="A43" s="24">
+      <c r="A43" s="14">
         <v>5</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="14">
         <v>21</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="23" t="s">
         <v>71</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="16"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="24">
+      <c r="A46" s="21"/>
+      <c r="B46" s="14">
         <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="15"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="16"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="24">
+      <c r="A49" s="21"/>
+      <c r="B49" s="14">
         <v>23</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="23" t="s">
         <v>73</v>
       </c>
       <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="16"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="24">
+      <c r="A51" s="21"/>
+      <c r="B51" s="14">
         <v>24</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1">
-      <c r="A53" s="25"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="6">
         <v>25</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="16"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1">
-      <c r="A54" s="17">
+      <c r="A54" s="18">
         <v>6</v>
       </c>
-      <c r="B54" s="29">
+      <c r="B54" s="16">
         <v>26</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="29" t="s">
         <v>75</v>
       </c>
       <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="23"/>
+      <c r="D55" s="29"/>
       <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1">
-      <c r="A56" s="18"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="9">
         <v>27</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="29" t="s">
         <v>83</v>
       </c>
       <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1">
-      <c r="A57" s="18"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="9">
         <v>28</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="23"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1">
-      <c r="A58" s="18"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="9">
         <v>29</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="23" t="s">
         <v>80</v>
       </c>
       <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1">
-      <c r="A59" s="18"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="9">
         <v>30</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="15"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1">
-      <c r="A60" s="19"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="9">
         <v>31</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="16"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D42"/>
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="A54:A60"/>
     <mergeCell ref="A1:E1"/>
@@ -1847,6 +1847,35 @@
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A43:A53"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/독학 학습 진도표[초보자용_전면개정2판].xlsx
+++ b/독학 학습 진도표[초보자용_전면개정2판].xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="23055" windowHeight="13920"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t>주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시맨틱 마크업을 통해 탄탄한 기초를 갖추고 CSS가 입혀지는 이론적 배경을 정확히 이해합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가장 핵심이 되는 7가지 선택자를 학습합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,12 +296,32 @@
   </si>
   <si>
     <t>폰갭 CLI로 안드로이드, iOS의 하이브리드앱을 제작하는 방법을 학습합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -563,6 +579,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -572,15 +615,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,24 +626,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -622,6 +638,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -639,7 +658,13 @@
     <xdr:ext cx="9184693" cy="1067985"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -877,7 +902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -910,9 +935,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -945,6 +987,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1121,13 +1180,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1139,13 +1198,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="A1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1161,676 +1220,669 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="24">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="22">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="27">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="6">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="24">
+      <c r="A11" s="21"/>
+      <c r="B11" s="14">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="11"/>
+      <c r="D11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="18">
         <v>2</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="17">
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>62</v>
+      <c r="D14" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="28">
+      <c r="A16" s="19"/>
+      <c r="B16" s="17">
         <v>7</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="28">
+      <c r="A18" s="19"/>
+      <c r="B18" s="17">
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="28">
+      <c r="A20" s="19"/>
+      <c r="B20" s="17">
         <v>9</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17">
+      <c r="A22" s="19"/>
+      <c r="B22" s="18">
         <v>10</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>64</v>
+      <c r="D22" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="24">
+      <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="14">
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="24">
+      <c r="A26" s="21"/>
+      <c r="B26" s="14">
         <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>65</v>
+      <c r="D26" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="24">
+      <c r="A29" s="21"/>
+      <c r="B29" s="14">
         <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>67</v>
+      <c r="D30" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="25"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="6">
         <v>14</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="24">
+      <c r="A32" s="21"/>
+      <c r="B32" s="14">
         <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>68</v>
+      <c r="D32" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1">
-      <c r="A35" s="17">
+      <c r="A35" s="18">
         <v>4</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="18">
         <v>16</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="16"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="17">
+      <c r="A38" s="19"/>
+      <c r="B38" s="18">
         <v>17</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="14" t="s">
-        <v>69</v>
+      <c r="D38" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="16"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1">
-      <c r="A40" s="18"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="8">
         <v>18</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>70</v>
+      <c r="D40" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1">
-      <c r="A41" s="18"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="8">
         <v>19</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="15"/>
+        <v>76</v>
+      </c>
+      <c r="D41" s="24"/>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1">
-      <c r="A42" s="19"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="8">
         <v>20</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="16"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1">
-      <c r="A43" s="24">
+      <c r="A43" s="14">
         <v>5</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="14">
         <v>21</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>71</v>
+      <c r="D43" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="16"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="24">
+      <c r="A46" s="21"/>
+      <c r="B46" s="14">
         <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>72</v>
+      <c r="D46" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="15"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="16"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="24">
+      <c r="A49" s="21"/>
+      <c r="B49" s="14">
         <v>23</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>73</v>
+      <c r="D49" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="16"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="24">
+      <c r="A51" s="21"/>
+      <c r="B51" s="14">
         <v>24</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>74</v>
+      <c r="D51" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1">
-      <c r="A53" s="25"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="6">
         <v>25</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="16"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1">
-      <c r="A54" s="17">
+      <c r="A54" s="18">
         <v>6</v>
       </c>
-      <c r="B54" s="29">
+      <c r="B54" s="16">
         <v>26</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="23" t="s">
-        <v>75</v>
+      <c r="D54" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="23"/>
+      <c r="D55" s="29"/>
       <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1">
-      <c r="A56" s="18"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="9">
         <v>27</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="23" t="s">
-        <v>83</v>
+      <c r="D56" s="29" t="s">
+        <v>82</v>
       </c>
       <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1">
-      <c r="A57" s="18"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="9">
         <v>28</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="23"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1">
-      <c r="A58" s="18"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="9">
         <v>29</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="14" t="s">
-        <v>80</v>
-      </c>
       <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1">
-      <c r="A59" s="18"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="9">
         <v>30</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" s="15"/>
+        <v>80</v>
+      </c>
+      <c r="D59" s="24"/>
       <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1">
-      <c r="A60" s="19"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="9">
         <v>31</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="16"/>
+        <v>81</v>
+      </c>
+      <c r="D60" s="25"/>
       <c r="E60" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D42"/>
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="A54:A60"/>
     <mergeCell ref="A1:E1"/>
@@ -1847,6 +1899,35 @@
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A43:A53"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/독학 학습 진도표[초보자용_전면개정2판].xlsx
+++ b/독학 학습 진도표[초보자용_전면개정2판].xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
   <si>
     <t>주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -579,53 +579,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1185,8 +1185,8 @@
   </sheetPr>
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1198,13 +1198,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1224,16 +1224,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="14">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="27">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="14" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -1241,25 +1241,25 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22">
+      <c r="A5" s="25"/>
+      <c r="B5" s="27">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -1267,36 +1267,36 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22">
+      <c r="A8" s="25"/>
+      <c r="B8" s="27">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="14" t="s">
         <v>60</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -1304,38 +1304,38 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1">
-      <c r="A10" s="21"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="6">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="14">
+      <c r="A11" s="25"/>
+      <c r="B11" s="24">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="14" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -1343,191 +1343,221 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>2</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="28">
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="17">
+      <c r="A16" s="18"/>
+      <c r="B16" s="28">
         <v>7</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="17">
+      <c r="A18" s="18"/>
+      <c r="B18" s="28">
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="17">
+      <c r="A20" s="18"/>
+      <c r="B20" s="28">
         <v>9</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="11"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="18">
+      <c r="A22" s="18"/>
+      <c r="B22" s="17">
         <v>10</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="11"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="14">
+      <c r="A24" s="24">
         <v>3</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="24">
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="11"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="11"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="14">
+      <c r="A26" s="25"/>
+      <c r="B26" s="24">
         <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="11"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="11"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="14">
+      <c r="A29" s="25"/>
+      <c r="B29" s="24">
         <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1536,353 +1566,388 @@
       <c r="D29" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="11"/>
+      <c r="E30" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="21"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="6">
         <v>14</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="11"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="14">
+      <c r="A32" s="25"/>
+      <c r="B32" s="24">
         <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="14" t="s">
         <v>67</v>
       </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="24"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="24"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1">
-      <c r="A35" s="18">
+      <c r="A35" s="17">
         <v>4</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <v>16</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="24"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="24"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="25"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1">
-      <c r="A38" s="19"/>
-      <c r="B38" s="18">
+      <c r="A38" s="18"/>
+      <c r="B38" s="17">
         <v>17</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="25"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1">
-      <c r="A40" s="19"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="8">
         <v>18</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="14" t="s">
         <v>69</v>
       </c>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1">
-      <c r="A41" s="19"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="8">
         <v>19</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="24"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1">
-      <c r="A42" s="20"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="8">
         <v>20</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="25"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1">
-      <c r="A43" s="14">
+      <c r="A43" s="24">
         <v>5</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="24">
         <v>21</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="14" t="s">
         <v>70</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="24"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1">
-      <c r="A45" s="21"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="25"/>
+      <c r="D45" s="16"/>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1">
-      <c r="A46" s="21"/>
-      <c r="B46" s="14">
+      <c r="A46" s="25"/>
+      <c r="B46" s="24">
         <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="24"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1">
-      <c r="A48" s="21"/>
-      <c r="B48" s="15"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="25"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1">
-      <c r="A49" s="21"/>
-      <c r="B49" s="14">
+      <c r="A49" s="25"/>
+      <c r="B49" s="24">
         <v>23</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="14" t="s">
         <v>72</v>
       </c>
       <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="15"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="25"/>
+      <c r="D50" s="16"/>
       <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1">
-      <c r="A51" s="21"/>
-      <c r="B51" s="14">
+      <c r="A51" s="25"/>
+      <c r="B51" s="24">
         <v>24</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="14" t="s">
         <v>73</v>
       </c>
       <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1">
-      <c r="A52" s="21"/>
-      <c r="B52" s="15"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="24"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1">
-      <c r="A53" s="21"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="6">
         <v>25</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="25"/>
+      <c r="D53" s="16"/>
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1">
-      <c r="A54" s="18">
+      <c r="A54" s="17">
         <v>6</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="29">
         <v>26</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="16"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="29"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1">
-      <c r="A56" s="19"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="9">
         <v>27</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="23" t="s">
         <v>82</v>
       </c>
       <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1">
-      <c r="A57" s="19"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="9">
         <v>28</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="29"/>
+      <c r="D57" s="23"/>
       <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1">
-      <c r="A58" s="19"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="9">
         <v>29</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="14" t="s">
         <v>79</v>
       </c>
       <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1">
-      <c r="A59" s="19"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="9">
         <v>30</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="24"/>
+      <c r="D59" s="15"/>
       <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1">
-      <c r="A60" s="20"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="9">
         <v>31</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="25"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D42"/>
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="A54:A60"/>
     <mergeCell ref="A1:E1"/>
@@ -1899,35 +1964,6 @@
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A43:A53"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/독학 학습 진도표[초보자용_전면개정2판].xlsx
+++ b/독학 학습 진도표[초보자용_전면개정2판].xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="88">
   <si>
     <t>주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -579,6 +579,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -588,15 +615,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,24 +626,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1185,8 +1185,8 @@
   </sheetPr>
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1198,13 +1198,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1224,16 +1224,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="24">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="22">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -1241,25 +1241,25 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="27">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -1267,36 +1267,36 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -1304,38 +1304,38 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="6">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="24">
+      <c r="A11" s="21"/>
+      <c r="B11" s="14">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="23" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -1343,38 +1343,38 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="18">
         <v>2</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="17">
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -1382,80 +1382,80 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="28">
+      <c r="A16" s="19"/>
+      <c r="B16" s="17">
         <v>7</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="28">
+      <c r="A18" s="19"/>
+      <c r="B18" s="17">
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="28">
+      <c r="A20" s="19"/>
+      <c r="B20" s="17">
         <v>9</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
@@ -1467,14 +1467,14 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17">
+      <c r="A22" s="19"/>
+      <c r="B22" s="18">
         <v>10</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="23" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -1482,51 +1482,51 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="24">
+      <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="14">
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="24">
+      <c r="A26" s="21"/>
+      <c r="B26" s="14">
         <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="23" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="11" t="s">
@@ -1534,30 +1534,30 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="24">
+      <c r="A29" s="21"/>
+      <c r="B29" s="14">
         <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1571,12 +1571,12 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="11" t="s">
@@ -1584,370 +1584,385 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="25"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="6">
         <v>14</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="24">
+      <c r="A32" s="21"/>
+      <c r="B32" s="14">
         <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="11"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="11"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1">
-      <c r="A35" s="17">
+      <c r="A35" s="18">
         <v>4</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="18">
         <v>16</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="11"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="11"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="11"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="17">
+      <c r="A38" s="19"/>
+      <c r="B38" s="18">
         <v>17</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="11"/>
+      <c r="E38" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="11"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1">
-      <c r="A40" s="18"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="8">
         <v>18</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="11"/>
+      <c r="E40" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1">
-      <c r="A41" s="18"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="8">
         <v>19</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="11"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1">
-      <c r="A42" s="19"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="8">
         <v>20</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="11"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1">
-      <c r="A43" s="24">
+      <c r="A43" s="14">
         <v>5</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="14">
         <v>21</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="11"/>
+      <c r="E43" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="11"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="11"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="24">
+      <c r="A46" s="21"/>
+      <c r="B46" s="14">
         <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="11"/>
+      <c r="E46" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="11"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="11"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="24">
+      <c r="A49" s="21"/>
+      <c r="B49" s="14">
         <v>23</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="16"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="24">
+      <c r="A51" s="21"/>
+      <c r="B51" s="14">
         <v>24</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="11"/>
+      <c r="E51" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="11"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1">
-      <c r="A53" s="25"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="6">
         <v>25</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="11"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1">
-      <c r="A54" s="17">
+      <c r="A54" s="18">
         <v>6</v>
       </c>
-      <c r="B54" s="29">
+      <c r="B54" s="16">
         <v>26</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="29" t="s">
         <v>74</v>
       </c>
       <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="11"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1">
-      <c r="A56" s="18"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="9">
         <v>27</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="11"/>
+      <c r="E56" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1">
-      <c r="A57" s="18"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="9">
         <v>28</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="23"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1">
-      <c r="A58" s="18"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="9">
         <v>29</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="23" t="s">
         <v>79</v>
       </c>
       <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1">
-      <c r="A59" s="18"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="9">
         <v>30</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="15"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1">
-      <c r="A60" s="19"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="9">
         <v>31</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="16"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D42"/>
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="A54:A60"/>
     <mergeCell ref="A1:E1"/>
@@ -1964,6 +1979,35 @@
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A43:A53"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
